--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/15/seed4/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.052</v>
+        <v>-12.655</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.652</v>
+        <v>13.168</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>13.03</v>
+        <v>13.026</v>
       </c>
     </row>
     <row r="7">
@@ -584,7 +584,7 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>7.82</v>
+        <v>6.819</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>13.03</v>
+        <v>12.357</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.814</v>
+        <v>-12.704</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.018</v>
+        <v>13.342</v>
       </c>
     </row>
     <row r="12">
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>5.268</v>
+        <v>6.055999999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.1</v>
+        <v>6.37</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.193999999999999</v>
+        <v>-7.843999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>13.39</v>
+        <v>13.266</v>
       </c>
     </row>
     <row r="22">
